--- a/banhang24/Template/ExportExcel/Teamplate_GoiDichVu.xlsx
+++ b/banhang24/Template/ExportExcel/Teamplate_GoiDichVu.xlsx
@@ -655,7 +655,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/banhang24/Template/ExportExcel/Teamplate_GoiDichVu.xlsx
+++ b/banhang24/Template/ExportExcel/Teamplate_GoiDichVu.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Tên khách hàng</t>
   </si>
@@ -76,9 +76,6 @@
     <t>Người tạo</t>
   </si>
   <si>
-    <t>Còn lại</t>
-  </si>
-  <si>
     <t>Tiền mặt</t>
   </si>
   <si>
@@ -107,6 +104,15 @@
   </si>
   <si>
     <t>Khách đã trả</t>
+  </si>
+  <si>
+    <t>Bù trừ trả hàng</t>
+  </si>
+  <si>
+    <t>Giá trị sau trả</t>
+  </si>
+  <si>
+    <t>Còn nợ</t>
   </si>
 </sst>
 </file>
@@ -650,12 +656,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA33"/>
+  <dimension ref="A1:AC33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -672,14 +678,14 @@
     <col min="14" max="15" width="18" style="28" customWidth="1"/>
     <col min="16" max="16" width="21" style="28" customWidth="1"/>
     <col min="17" max="17" width="19.140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="18" max="23" width="19.140625" style="28" customWidth="1"/>
-    <col min="24" max="24" width="18.140625" style="28" customWidth="1"/>
-    <col min="25" max="25" width="18.140625" style="7" customWidth="1"/>
-    <col min="26" max="26" width="21.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="18" max="25" width="19.140625" style="28" customWidth="1"/>
+    <col min="26" max="26" width="18.140625" style="28" customWidth="1"/>
+    <col min="27" max="27" width="18.140625" style="7" customWidth="1"/>
+    <col min="28" max="28" width="21.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>17</v>
       </c>
@@ -708,9 +714,11 @@
       <c r="X1" s="33"/>
       <c r="Y1" s="33"/>
       <c r="Z1" s="33"/>
-      <c r="AA1" s="5"/>
-    </row>
-    <row r="2" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="5"/>
+    </row>
+    <row r="2" spans="1:29" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18"/>
       <c r="B2" s="18"/>
       <c r="C2" s="22"/>
@@ -735,11 +743,13 @@
       <c r="V2" s="27"/>
       <c r="W2" s="27"/>
       <c r="X2" s="27"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="5"/>
-    </row>
-    <row r="3" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="5"/>
+    </row>
+    <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>13</v>
       </c>
@@ -766,11 +776,13 @@
       <c r="V3" s="27"/>
       <c r="W3" s="27"/>
       <c r="X3" s="27"/>
-      <c r="Y3" s="25"/>
-      <c r="Z3" s="18"/>
-      <c r="AA3" s="5"/>
-    </row>
-    <row r="4" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="25"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="5"/>
+    </row>
+    <row r="4" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>14</v>
       </c>
@@ -796,12 +808,14 @@
       <c r="V4" s="27"/>
       <c r="W4" s="27"/>
       <c r="X4" s="27"/>
-      <c r="Y4" s="25"/>
-      <c r="Z4" s="18"/>
-      <c r="AA4" s="5"/>
-    </row>
-    <row r="5" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:27" s="8" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y4" s="27"/>
+      <c r="Z4" s="27"/>
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="18"/>
+      <c r="AC4" s="5"/>
+    </row>
+    <row r="5" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:29" s="8" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -815,10 +829,10 @@
         <v>16</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>0</v>
@@ -830,7 +844,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>5</v>
@@ -845,7 +859,7 @@
         <v>8</v>
       </c>
       <c r="O6" s="29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P6" s="29" t="s">
         <v>9</v>
@@ -857,31 +871,37 @@
         <v>29</v>
       </c>
       <c r="S6" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="T6" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="U6" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="V6" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T6" s="29" t="s">
+      <c r="W6" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="U6" s="29" t="s">
+      <c r="X6" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y6" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="V6" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="W6" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="X6" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y6" s="4" t="s">
+      <c r="Z6" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Z6" s="10" t="s">
+      <c r="AB6" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -906,10 +926,12 @@
       <c r="V7" s="30"/>
       <c r="W7" s="30"/>
       <c r="X7" s="30"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="13"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="13"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -934,10 +956,12 @@
       <c r="V8" s="30"/>
       <c r="W8" s="30"/>
       <c r="X8" s="30"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="13"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="13"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -962,10 +986,12 @@
       <c r="V9" s="30"/>
       <c r="W9" s="30"/>
       <c r="X9" s="30"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="13"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="13"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -990,10 +1016,12 @@
       <c r="V10" s="30"/>
       <c r="W10" s="30"/>
       <c r="X10" s="30"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="13"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Y10" s="30"/>
+      <c r="Z10" s="30"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="13"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -1018,10 +1046,12 @@
       <c r="V11" s="30"/>
       <c r="W11" s="30"/>
       <c r="X11" s="30"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="13"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="30"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="13"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -1046,10 +1076,12 @@
       <c r="V12" s="30"/>
       <c r="W12" s="30"/>
       <c r="X12" s="30"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="13"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="30"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="13"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -1074,10 +1106,12 @@
       <c r="V13" s="30"/>
       <c r="W13" s="30"/>
       <c r="X13" s="30"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="13"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Y13" s="30"/>
+      <c r="Z13" s="30"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="13"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -1102,10 +1136,12 @@
       <c r="V14" s="30"/>
       <c r="W14" s="30"/>
       <c r="X14" s="30"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="13"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="13"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -1130,10 +1166,12 @@
       <c r="V15" s="30"/>
       <c r="W15" s="30"/>
       <c r="X15" s="30"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="13"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Y15" s="30"/>
+      <c r="Z15" s="30"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="13"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -1158,10 +1196,12 @@
       <c r="V16" s="30"/>
       <c r="W16" s="30"/>
       <c r="X16" s="30"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="13"/>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y16" s="30"/>
+      <c r="Z16" s="30"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="13"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -1186,10 +1226,12 @@
       <c r="V17" s="30"/>
       <c r="W17" s="30"/>
       <c r="X17" s="30"/>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="13"/>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y17" s="30"/>
+      <c r="Z17" s="30"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="13"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -1214,10 +1256,12 @@
       <c r="V18" s="30"/>
       <c r="W18" s="30"/>
       <c r="X18" s="30"/>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="13"/>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y18" s="30"/>
+      <c r="Z18" s="30"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="13"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -1242,10 +1286,12 @@
       <c r="V19" s="30"/>
       <c r="W19" s="30"/>
       <c r="X19" s="30"/>
-      <c r="Y19" s="6"/>
-      <c r="Z19" s="13"/>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y19" s="30"/>
+      <c r="Z19" s="30"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="13"/>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -1270,10 +1316,12 @@
       <c r="V20" s="30"/>
       <c r="W20" s="30"/>
       <c r="X20" s="30"/>
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="13"/>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y20" s="30"/>
+      <c r="Z20" s="30"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="13"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -1298,10 +1346,12 @@
       <c r="V21" s="30"/>
       <c r="W21" s="30"/>
       <c r="X21" s="30"/>
-      <c r="Y21" s="6"/>
-      <c r="Z21" s="13"/>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y21" s="30"/>
+      <c r="Z21" s="30"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="13"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -1326,10 +1376,12 @@
       <c r="V22" s="30"/>
       <c r="W22" s="30"/>
       <c r="X22" s="30"/>
-      <c r="Y22" s="6"/>
-      <c r="Z22" s="13"/>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y22" s="30"/>
+      <c r="Z22" s="30"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="13"/>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -1354,10 +1406,12 @@
       <c r="V23" s="30"/>
       <c r="W23" s="30"/>
       <c r="X23" s="30"/>
-      <c r="Y23" s="6"/>
-      <c r="Z23" s="13"/>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y23" s="30"/>
+      <c r="Z23" s="30"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="13"/>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -1382,10 +1436,12 @@
       <c r="V24" s="30"/>
       <c r="W24" s="30"/>
       <c r="X24" s="30"/>
-      <c r="Y24" s="6"/>
-      <c r="Z24" s="13"/>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y24" s="30"/>
+      <c r="Z24" s="30"/>
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="13"/>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -1410,10 +1466,12 @@
       <c r="V25" s="30"/>
       <c r="W25" s="30"/>
       <c r="X25" s="30"/>
-      <c r="Y25" s="6"/>
-      <c r="Z25" s="13"/>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y25" s="30"/>
+      <c r="Z25" s="30"/>
+      <c r="AA25" s="6"/>
+      <c r="AB25" s="13"/>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -1438,10 +1496,12 @@
       <c r="V26" s="30"/>
       <c r="W26" s="30"/>
       <c r="X26" s="30"/>
-      <c r="Y26" s="6"/>
-      <c r="Z26" s="13"/>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y26" s="30"/>
+      <c r="Z26" s="30"/>
+      <c r="AA26" s="6"/>
+      <c r="AB26" s="13"/>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="17"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -1466,10 +1526,12 @@
       <c r="V27" s="30"/>
       <c r="W27" s="30"/>
       <c r="X27" s="30"/>
-      <c r="Y27" s="6"/>
-      <c r="Z27" s="13"/>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y27" s="30"/>
+      <c r="Z27" s="30"/>
+      <c r="AA27" s="6"/>
+      <c r="AB27" s="13"/>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -1494,10 +1556,12 @@
       <c r="V28" s="30"/>
       <c r="W28" s="30"/>
       <c r="X28" s="30"/>
-      <c r="Y28" s="6"/>
-      <c r="Z28" s="13"/>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y28" s="30"/>
+      <c r="Z28" s="30"/>
+      <c r="AA28" s="6"/>
+      <c r="AB28" s="13"/>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -1522,10 +1586,12 @@
       <c r="V29" s="30"/>
       <c r="W29" s="30"/>
       <c r="X29" s="30"/>
-      <c r="Y29" s="6"/>
-      <c r="Z29" s="13"/>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y29" s="30"/>
+      <c r="Z29" s="30"/>
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="13"/>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -1550,10 +1616,12 @@
       <c r="V30" s="30"/>
       <c r="W30" s="30"/>
       <c r="X30" s="30"/>
-      <c r="Y30" s="6"/>
-      <c r="Z30" s="13"/>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y30" s="30"/>
+      <c r="Z30" s="30"/>
+      <c r="AA30" s="6"/>
+      <c r="AB30" s="13"/>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="34" t="s">
         <v>12</v>
       </c>
@@ -1613,10 +1681,18 @@
         <f>SUM(X$7:X30)</f>
         <v>0</v>
       </c>
-      <c r="Y31" s="20"/>
-      <c r="Z31" s="19"/>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Y31" s="31">
+        <f>SUM(Y$7:Y30)</f>
+        <v>0</v>
+      </c>
+      <c r="Z31" s="31">
+        <f>SUM(Z$7:Z30)</f>
+        <v>0</v>
+      </c>
+      <c r="AA31" s="20"/>
+      <c r="AB31" s="19"/>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1640,12 +1716,14 @@
       <c r="V33" s="32"/>
       <c r="W33" s="32"/>
       <c r="X33" s="32"/>
-      <c r="Y33" s="1"/>
-      <c r="Z33" s="1"/>
+      <c r="Y33" s="32"/>
+      <c r="Z33" s="32"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:Z1"/>
+    <mergeCell ref="A1:AB1"/>
     <mergeCell ref="A31:M31"/>
   </mergeCells>
   <pageMargins left="0.76" right="0.23" top="0.78" bottom="0.87" header="0.3" footer="0.7"/>

--- a/banhang24/Template/ExportExcel/Teamplate_GoiDichVu.xlsx
+++ b/banhang24/Template/ExportExcel/Teamplate_GoiDichVu.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Tên khách hàng</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>Trạng thái</t>
-  </si>
-  <si>
-    <t>Tổng cộng</t>
   </si>
   <si>
     <t>Thời gian:</t>
@@ -120,11 +117,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="#,##0.000"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -166,7 +163,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -179,14 +176,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59996337778862885"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -209,41 +200,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -252,16 +219,16 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="4" fillId="2" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -297,12 +264,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -331,20 +292,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -656,12 +608,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC33"/>
+  <dimension ref="A1:AC32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,142 +627,142 @@
     <col min="9" max="10" width="29.85546875" style="9" customWidth="1"/>
     <col min="11" max="11" width="29" style="9" customWidth="1"/>
     <col min="12" max="13" width="24.140625" style="9" customWidth="1"/>
-    <col min="14" max="15" width="18" style="28" customWidth="1"/>
-    <col min="16" max="16" width="21" style="28" customWidth="1"/>
-    <col min="17" max="17" width="19.140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="18" max="25" width="19.140625" style="28" customWidth="1"/>
-    <col min="26" max="26" width="18.140625" style="28" customWidth="1"/>
+    <col min="14" max="15" width="18" style="26" customWidth="1"/>
+    <col min="16" max="16" width="21" style="26" customWidth="1"/>
+    <col min="17" max="17" width="19.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="18" max="25" width="19.140625" style="26" customWidth="1"/>
+    <col min="26" max="26" width="18.140625" style="26" customWidth="1"/>
     <col min="27" max="27" width="18.140625" style="7" customWidth="1"/>
     <col min="28" max="28" width="21.7109375" style="12" bestFit="1" customWidth="1"/>
     <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
+      <c r="A1" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
       <c r="AC1" s="5"/>
     </row>
     <row r="2" spans="1:29" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18"/>
       <c r="B2" s="18"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="24"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="22"/>
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
       <c r="I2" s="18"/>
-      <c r="J2" s="25"/>
+      <c r="J2" s="23"/>
       <c r="K2" s="18"/>
       <c r="L2" s="18"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="25"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="23"/>
       <c r="AB2" s="18"/>
       <c r="AC2" s="5"/>
     </row>
     <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
+      <c r="A3" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
-      <c r="J3" s="25"/>
+      <c r="J3" s="23"/>
       <c r="K3" s="18"/>
       <c r="L3" s="18"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="27"/>
-      <c r="Z3" s="27"/>
-      <c r="AA3" s="25"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
+      <c r="X3" s="25"/>
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25"/>
+      <c r="AA3" s="23"/>
       <c r="AB3" s="18"/>
       <c r="AC3" s="5"/>
     </row>
     <row r="4" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
+      <c r="A4" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
-      <c r="J4" s="25"/>
+      <c r="J4" s="23"/>
       <c r="K4" s="18"/>
       <c r="L4" s="18"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="27"/>
-      <c r="X4" s="27"/>
-      <c r="Y4" s="27"/>
-      <c r="Z4" s="27"/>
-      <c r="AA4" s="25"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="23"/>
       <c r="AB4" s="18"/>
       <c r="AC4" s="5"/>
     </row>
@@ -823,16 +775,16 @@
         <v>3</v>
       </c>
       <c r="C6" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>16</v>
-      </c>
       <c r="E6" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>0</v>
@@ -844,7 +796,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>5</v>
@@ -853,46 +805,46 @@
         <v>6</v>
       </c>
       <c r="M6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="P6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q6" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="R6" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="S6" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="T6" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="U6" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="O6" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="P6" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q6" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="R6" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="S6" s="29" t="s">
+      <c r="V6" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="W6" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="X6" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y6" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z6" s="27" t="s">
         <v>30</v>
-      </c>
-      <c r="T6" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="U6" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="V6" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="W6" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="X6" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y6" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z6" s="29" t="s">
-        <v>31</v>
       </c>
       <c r="AA6" s="4" t="s">
         <v>7</v>
@@ -915,19 +867,19 @@
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="30"/>
-      <c r="V7" s="30"/>
-      <c r="W7" s="30"/>
-      <c r="X7" s="30"/>
-      <c r="Y7" s="30"/>
-      <c r="Z7" s="30"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="28"/>
+      <c r="W7" s="28"/>
+      <c r="X7" s="28"/>
+      <c r="Y7" s="28"/>
+      <c r="Z7" s="28"/>
       <c r="AA7" s="6"/>
       <c r="AB7" s="13"/>
     </row>
@@ -945,19 +897,19 @@
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="30"/>
-      <c r="T8" s="30"/>
-      <c r="U8" s="30"/>
-      <c r="V8" s="30"/>
-      <c r="W8" s="30"/>
-      <c r="X8" s="30"/>
-      <c r="Y8" s="30"/>
-      <c r="Z8" s="30"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="28"/>
+      <c r="Y8" s="28"/>
+      <c r="Z8" s="28"/>
       <c r="AA8" s="6"/>
       <c r="AB8" s="13"/>
     </row>
@@ -975,19 +927,19 @@
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="30"/>
-      <c r="W9" s="30"/>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="30"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="28"/>
+      <c r="W9" s="28"/>
+      <c r="X9" s="28"/>
+      <c r="Y9" s="28"/>
+      <c r="Z9" s="28"/>
       <c r="AA9" s="6"/>
       <c r="AB9" s="13"/>
     </row>
@@ -1005,19 +957,19 @@
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="30"/>
-      <c r="V10" s="30"/>
-      <c r="W10" s="30"/>
-      <c r="X10" s="30"/>
-      <c r="Y10" s="30"/>
-      <c r="Z10" s="30"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="28"/>
+      <c r="X10" s="28"/>
+      <c r="Y10" s="28"/>
+      <c r="Z10" s="28"/>
       <c r="AA10" s="6"/>
       <c r="AB10" s="13"/>
     </row>
@@ -1035,19 +987,19 @@
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="30"/>
-      <c r="V11" s="30"/>
-      <c r="W11" s="30"/>
-      <c r="X11" s="30"/>
-      <c r="Y11" s="30"/>
-      <c r="Z11" s="30"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="28"/>
+      <c r="W11" s="28"/>
+      <c r="X11" s="28"/>
+      <c r="Y11" s="28"/>
+      <c r="Z11" s="28"/>
       <c r="AA11" s="6"/>
       <c r="AB11" s="13"/>
     </row>
@@ -1065,19 +1017,19 @@
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="30"/>
-      <c r="V12" s="30"/>
-      <c r="W12" s="30"/>
-      <c r="X12" s="30"/>
-      <c r="Y12" s="30"/>
-      <c r="Z12" s="30"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="28"/>
+      <c r="Y12" s="28"/>
+      <c r="Z12" s="28"/>
       <c r="AA12" s="6"/>
       <c r="AB12" s="13"/>
     </row>
@@ -1095,19 +1047,19 @@
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
       <c r="M13" s="11"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="30"/>
-      <c r="V13" s="30"/>
-      <c r="W13" s="30"/>
-      <c r="X13" s="30"/>
-      <c r="Y13" s="30"/>
-      <c r="Z13" s="30"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="28"/>
+      <c r="Y13" s="28"/>
+      <c r="Z13" s="28"/>
       <c r="AA13" s="6"/>
       <c r="AB13" s="13"/>
     </row>
@@ -1125,19 +1077,19 @@
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="30"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="30"/>
-      <c r="V14" s="30"/>
-      <c r="W14" s="30"/>
-      <c r="X14" s="30"/>
-      <c r="Y14" s="30"/>
-      <c r="Z14" s="30"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="28"/>
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="28"/>
       <c r="AA14" s="6"/>
       <c r="AB14" s="13"/>
     </row>
@@ -1155,19 +1107,19 @@
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="30"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="30"/>
-      <c r="V15" s="30"/>
-      <c r="W15" s="30"/>
-      <c r="X15" s="30"/>
-      <c r="Y15" s="30"/>
-      <c r="Z15" s="30"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="28"/>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="28"/>
       <c r="AA15" s="6"/>
       <c r="AB15" s="13"/>
     </row>
@@ -1185,19 +1137,19 @@
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="30"/>
-      <c r="T16" s="30"/>
-      <c r="U16" s="30"/>
-      <c r="V16" s="30"/>
-      <c r="W16" s="30"/>
-      <c r="X16" s="30"/>
-      <c r="Y16" s="30"/>
-      <c r="Z16" s="30"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="28"/>
+      <c r="W16" s="28"/>
+      <c r="X16" s="28"/>
+      <c r="Y16" s="28"/>
+      <c r="Z16" s="28"/>
       <c r="AA16" s="6"/>
       <c r="AB16" s="13"/>
     </row>
@@ -1215,19 +1167,19 @@
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="30"/>
-      <c r="T17" s="30"/>
-      <c r="U17" s="30"/>
-      <c r="V17" s="30"/>
-      <c r="W17" s="30"/>
-      <c r="X17" s="30"/>
-      <c r="Y17" s="30"/>
-      <c r="Z17" s="30"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="28"/>
+      <c r="W17" s="28"/>
+      <c r="X17" s="28"/>
+      <c r="Y17" s="28"/>
+      <c r="Z17" s="28"/>
       <c r="AA17" s="6"/>
       <c r="AB17" s="13"/>
     </row>
@@ -1245,19 +1197,19 @@
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
       <c r="M18" s="11"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="30"/>
-      <c r="T18" s="30"/>
-      <c r="U18" s="30"/>
-      <c r="V18" s="30"/>
-      <c r="W18" s="30"/>
-      <c r="X18" s="30"/>
-      <c r="Y18" s="30"/>
-      <c r="Z18" s="30"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="28"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="28"/>
+      <c r="W18" s="28"/>
+      <c r="X18" s="28"/>
+      <c r="Y18" s="28"/>
+      <c r="Z18" s="28"/>
       <c r="AA18" s="6"/>
       <c r="AB18" s="13"/>
     </row>
@@ -1275,19 +1227,19 @@
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
       <c r="M19" s="11"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="30"/>
-      <c r="U19" s="30"/>
-      <c r="V19" s="30"/>
-      <c r="W19" s="30"/>
-      <c r="X19" s="30"/>
-      <c r="Y19" s="30"/>
-      <c r="Z19" s="30"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="28"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="28"/>
+      <c r="W19" s="28"/>
+      <c r="X19" s="28"/>
+      <c r="Y19" s="28"/>
+      <c r="Z19" s="28"/>
       <c r="AA19" s="6"/>
       <c r="AB19" s="13"/>
     </row>
@@ -1305,19 +1257,19 @@
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="30"/>
-      <c r="T20" s="30"/>
-      <c r="U20" s="30"/>
-      <c r="V20" s="30"/>
-      <c r="W20" s="30"/>
-      <c r="X20" s="30"/>
-      <c r="Y20" s="30"/>
-      <c r="Z20" s="30"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="28"/>
+      <c r="W20" s="28"/>
+      <c r="X20" s="28"/>
+      <c r="Y20" s="28"/>
+      <c r="Z20" s="28"/>
       <c r="AA20" s="6"/>
       <c r="AB20" s="13"/>
     </row>
@@ -1335,19 +1287,19 @@
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
       <c r="M21" s="11"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="30"/>
-      <c r="S21" s="30"/>
-      <c r="T21" s="30"/>
-      <c r="U21" s="30"/>
-      <c r="V21" s="30"/>
-      <c r="W21" s="30"/>
-      <c r="X21" s="30"/>
-      <c r="Y21" s="30"/>
-      <c r="Z21" s="30"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="28"/>
+      <c r="W21" s="28"/>
+      <c r="X21" s="28"/>
+      <c r="Y21" s="28"/>
+      <c r="Z21" s="28"/>
       <c r="AA21" s="6"/>
       <c r="AB21" s="13"/>
     </row>
@@ -1365,19 +1317,19 @@
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="30"/>
-      <c r="T22" s="30"/>
-      <c r="U22" s="30"/>
-      <c r="V22" s="30"/>
-      <c r="W22" s="30"/>
-      <c r="X22" s="30"/>
-      <c r="Y22" s="30"/>
-      <c r="Z22" s="30"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="28"/>
+      <c r="T22" s="28"/>
+      <c r="U22" s="28"/>
+      <c r="V22" s="28"/>
+      <c r="W22" s="28"/>
+      <c r="X22" s="28"/>
+      <c r="Y22" s="28"/>
+      <c r="Z22" s="28"/>
       <c r="AA22" s="6"/>
       <c r="AB22" s="13"/>
     </row>
@@ -1395,19 +1347,19 @@
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="30"/>
-      <c r="T23" s="30"/>
-      <c r="U23" s="30"/>
-      <c r="V23" s="30"/>
-      <c r="W23" s="30"/>
-      <c r="X23" s="30"/>
-      <c r="Y23" s="30"/>
-      <c r="Z23" s="30"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="28"/>
+      <c r="T23" s="28"/>
+      <c r="U23" s="28"/>
+      <c r="V23" s="28"/>
+      <c r="W23" s="28"/>
+      <c r="X23" s="28"/>
+      <c r="Y23" s="28"/>
+      <c r="Z23" s="28"/>
       <c r="AA23" s="6"/>
       <c r="AB23" s="13"/>
     </row>
@@ -1425,19 +1377,19 @@
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
       <c r="M24" s="11"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="30"/>
-      <c r="S24" s="30"/>
-      <c r="T24" s="30"/>
-      <c r="U24" s="30"/>
-      <c r="V24" s="30"/>
-      <c r="W24" s="30"/>
-      <c r="X24" s="30"/>
-      <c r="Y24" s="30"/>
-      <c r="Z24" s="30"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="28"/>
+      <c r="T24" s="28"/>
+      <c r="U24" s="28"/>
+      <c r="V24" s="28"/>
+      <c r="W24" s="28"/>
+      <c r="X24" s="28"/>
+      <c r="Y24" s="28"/>
+      <c r="Z24" s="28"/>
       <c r="AA24" s="6"/>
       <c r="AB24" s="13"/>
     </row>
@@ -1455,19 +1407,19 @@
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="30"/>
-      <c r="R25" s="30"/>
-      <c r="S25" s="30"/>
-      <c r="T25" s="30"/>
-      <c r="U25" s="30"/>
-      <c r="V25" s="30"/>
-      <c r="W25" s="30"/>
-      <c r="X25" s="30"/>
-      <c r="Y25" s="30"/>
-      <c r="Z25" s="30"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="28"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="28"/>
+      <c r="W25" s="28"/>
+      <c r="X25" s="28"/>
+      <c r="Y25" s="28"/>
+      <c r="Z25" s="28"/>
       <c r="AA25" s="6"/>
       <c r="AB25" s="13"/>
     </row>
@@ -1485,19 +1437,19 @@
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="30"/>
-      <c r="T26" s="30"/>
-      <c r="U26" s="30"/>
-      <c r="V26" s="30"/>
-      <c r="W26" s="30"/>
-      <c r="X26" s="30"/>
-      <c r="Y26" s="30"/>
-      <c r="Z26" s="30"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="28"/>
+      <c r="T26" s="28"/>
+      <c r="U26" s="28"/>
+      <c r="V26" s="28"/>
+      <c r="W26" s="28"/>
+      <c r="X26" s="28"/>
+      <c r="Y26" s="28"/>
+      <c r="Z26" s="28"/>
       <c r="AA26" s="6"/>
       <c r="AB26" s="13"/>
     </row>
@@ -1515,19 +1467,19 @@
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
       <c r="M27" s="11"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="30"/>
-      <c r="R27" s="30"/>
-      <c r="S27" s="30"/>
-      <c r="T27" s="30"/>
-      <c r="U27" s="30"/>
-      <c r="V27" s="30"/>
-      <c r="W27" s="30"/>
-      <c r="X27" s="30"/>
-      <c r="Y27" s="30"/>
-      <c r="Z27" s="30"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="28"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="28"/>
+      <c r="W27" s="28"/>
+      <c r="X27" s="28"/>
+      <c r="Y27" s="28"/>
+      <c r="Z27" s="28"/>
       <c r="AA27" s="6"/>
       <c r="AB27" s="13"/>
     </row>
@@ -1545,19 +1497,19 @@
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
       <c r="M28" s="11"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="30"/>
-      <c r="S28" s="30"/>
-      <c r="T28" s="30"/>
-      <c r="U28" s="30"/>
-      <c r="V28" s="30"/>
-      <c r="W28" s="30"/>
-      <c r="X28" s="30"/>
-      <c r="Y28" s="30"/>
-      <c r="Z28" s="30"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="28"/>
+      <c r="T28" s="28"/>
+      <c r="U28" s="28"/>
+      <c r="V28" s="28"/>
+      <c r="W28" s="28"/>
+      <c r="X28" s="28"/>
+      <c r="Y28" s="28"/>
+      <c r="Z28" s="28"/>
       <c r="AA28" s="6"/>
       <c r="AB28" s="13"/>
     </row>
@@ -1575,19 +1527,19 @@
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
       <c r="M29" s="11"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="30"/>
-      <c r="T29" s="30"/>
-      <c r="U29" s="30"/>
-      <c r="V29" s="30"/>
-      <c r="W29" s="30"/>
-      <c r="X29" s="30"/>
-      <c r="Y29" s="30"/>
-      <c r="Z29" s="30"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="28"/>
+      <c r="R29" s="28"/>
+      <c r="S29" s="28"/>
+      <c r="T29" s="28"/>
+      <c r="U29" s="28"/>
+      <c r="V29" s="28"/>
+      <c r="W29" s="28"/>
+      <c r="X29" s="28"/>
+      <c r="Y29" s="28"/>
+      <c r="Z29" s="28"/>
       <c r="AA29" s="6"/>
       <c r="AB29" s="13"/>
     </row>
@@ -1605,126 +1557,54 @@
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
       <c r="M30" s="11"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="30"/>
-      <c r="R30" s="30"/>
-      <c r="S30" s="30"/>
-      <c r="T30" s="30"/>
-      <c r="U30" s="30"/>
-      <c r="V30" s="30"/>
-      <c r="W30" s="30"/>
-      <c r="X30" s="30"/>
-      <c r="Y30" s="30"/>
-      <c r="Z30" s="30"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="28"/>
+      <c r="R30" s="28"/>
+      <c r="S30" s="28"/>
+      <c r="T30" s="28"/>
+      <c r="U30" s="28"/>
+      <c r="V30" s="28"/>
+      <c r="W30" s="28"/>
+      <c r="X30" s="28"/>
+      <c r="Y30" s="28"/>
+      <c r="Z30" s="28"/>
       <c r="AA30" s="6"/>
       <c r="AB30" s="13"/>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A31" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="31">
-        <f>SUM(N$7:N30)</f>
-        <v>0</v>
-      </c>
-      <c r="O31" s="31">
-        <f>SUM(O$7:O30)</f>
-        <v>0</v>
-      </c>
-      <c r="P31" s="31">
-        <f>SUM(P$7:P30)</f>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="31">
-        <f>SUM(Q$7:Q30)</f>
-        <v>0</v>
-      </c>
-      <c r="R31" s="31">
-        <f>SUM(R$7:R30)</f>
-        <v>0</v>
-      </c>
-      <c r="S31" s="31">
-        <f>SUM(S$7:S30)</f>
-        <v>0</v>
-      </c>
-      <c r="T31" s="31">
-        <f>SUM(T$7:T30)</f>
-        <v>0</v>
-      </c>
-      <c r="U31" s="31">
-        <f>SUM(U$7:U30)</f>
-        <v>0</v>
-      </c>
-      <c r="V31" s="31">
-        <f>SUM(V$7:V30)</f>
-        <v>0</v>
-      </c>
-      <c r="W31" s="31">
-        <f>SUM(W$7:W30)</f>
-        <v>0</v>
-      </c>
-      <c r="X31" s="31">
-        <f>SUM(X$7:X30)</f>
-        <v>0</v>
-      </c>
-      <c r="Y31" s="31">
-        <f>SUM(Y$7:Y30)</f>
-        <v>0</v>
-      </c>
-      <c r="Z31" s="31">
-        <f>SUM(Z$7:Z30)</f>
-        <v>0</v>
-      </c>
-      <c r="AA31" s="20"/>
-      <c r="AB31" s="19"/>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="32"/>
-      <c r="P33" s="32"/>
-      <c r="Q33" s="32"/>
-      <c r="R33" s="32"/>
-      <c r="S33" s="32"/>
-      <c r="T33" s="32"/>
-      <c r="U33" s="32"/>
-      <c r="V33" s="32"/>
-      <c r="W33" s="32"/>
-      <c r="X33" s="32"/>
-      <c r="Y33" s="32"/>
-      <c r="Z33" s="32"/>
-      <c r="AA33" s="1"/>
-      <c r="AB33" s="1"/>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="29"/>
+      <c r="T32" s="29"/>
+      <c r="U32" s="29"/>
+      <c r="V32" s="29"/>
+      <c r="W32" s="29"/>
+      <c r="X32" s="29"/>
+      <c r="Y32" s="29"/>
+      <c r="Z32" s="29"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A1:AB1"/>
-    <mergeCell ref="A31:M31"/>
   </mergeCells>
   <pageMargins left="0.76" right="0.23" top="0.78" bottom="0.87" header="0.3" footer="0.7"/>
   <pageSetup scale="95" orientation="landscape" r:id="rId1"/>
